--- a/document/reference document/Ref. Document - Learning Curve.xlsx
+++ b/document/reference document/Ref. Document - Learning Curve.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="learning curve" sheetId="1" r:id="rId1"/>
     <sheet name="admin_password" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>https://github.com/chrisdev/django-pandas</t>
   </si>
@@ -38,6 +38,39 @@
   </si>
   <si>
     <t>django-tables2</t>
+  </si>
+  <si>
+    <t>https://codeburst.io/%E0%B9%80%E0%B8%A3%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%9E%E0%B8%B1%E0%B8%92%E0%B8%99%E0%B8%B2-web-application-%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%A0%E0%B8%B2%E0%B8%A9%E0%B8%B2-python-%E0%B8%94%E0%B9%89%E0%B8%A7%E0%B8%A2-django-framework-38ce132ac706</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>REF.</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>C:/</t>
+  </si>
+  <si>
+    <t>python36/</t>
+  </si>
+  <si>
+    <t>Script/</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -355,56 +388,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C9F232-DAF4-4875-90EB-6CC101F7FAC1}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C9F232-DAF4-4875-90EB-6CC101F7FAC1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
